--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3535236.156721075</v>
+        <v>3536996.687023861</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7838134.500984095</v>
+        <v>7838134.500984096</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>237.1158343738592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.548437113029045</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>51.27659234081855</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>37.22857314473595</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.7536523831692</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>82.84713108496571</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.6809424769253</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>247.6126611778642</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.98074812542793</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.879692121443</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881292</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.676600992463</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1475.714084052051</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.448385445301</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.448385445301</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>706.4624806556933</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>290.7577303799821</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.724745457701</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>2231.276441056585</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V4" t="n">
-        <v>787.5325281103969</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W4" t="n">
-        <v>787.5325281103969</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>559.5429772123796</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.7503980688494</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525391</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.079510584979</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D5" t="n">
-        <v>777.8138119782286</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="E5" t="n">
-        <v>777.8138119782286</v>
+        <v>208.2499072742128</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>201.3044065250094</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1486.93224570035</v>
+        <v>1059.365742829026</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.969728759938</v>
+        <v>690.4032258886148</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531877</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549434</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2209.57067313004</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>1445.965582893148</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466574</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878355</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.64330621514796</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>691809.1007194668</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>691809.1007194667</v>
+        <v>691809.1007194668</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>691809.1007194667</v>
+        <v>691809.1007194668</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731898</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731928</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731928</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26444,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731933</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>532207.8644227539</v>
       </c>
       <c r="D6" t="n">
-        <v>532207.8644227542</v>
+        <v>532207.8644227539</v>
       </c>
       <c r="E6" t="n">
-        <v>129537.9415837133</v>
+        <v>129850.5829126346</v>
       </c>
       <c r="F6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371809</v>
       </c>
       <c r="G6" t="n">
-        <v>637023.3832082589</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="H6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="I6" t="n">
-        <v>637023.3832082594</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="J6" t="n">
-        <v>469418.2053982767</v>
+        <v>469730.8467271983</v>
       </c>
       <c r="K6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="L6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371809</v>
       </c>
       <c r="M6" t="n">
-        <v>504416.0894793326</v>
+        <v>504728.7308082539</v>
       </c>
       <c r="N6" t="n">
-        <v>637023.3832082597</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="O6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="P6" t="n">
-        <v>637023.3832082594</v>
+        <v>637336.0245371806</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>63.90271818854615</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>116.9037782857653</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>50.28098007875509</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>214.9090701790921</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.12239335854224</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.7005716879883</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>103.9643448906368</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.05289918655524</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>107.0703804428187</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>96.27076102970094</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.095228647463573e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-5.958360270247413e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113678</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>464.8576954028716</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
